--- a/設計/VISA PROJECT.xlsx
+++ b/設計/VISA PROJECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juneu\git\jwt\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1021489-8AF1-411F-9EBE-9FEEF07B53D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED81BB27-161E-4624-86BD-40563D2E72E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="826" activeTab="4" xr2:uid="{1ECE33D4-F532-4B47-A818-AFB79BDFFF29}"/>
   </bookViews>
@@ -2768,33 +2768,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2802,58 +2775,85 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3808,22 +3808,22 @@
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3868,13 +3868,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="77">
+      <c r="A4" s="80">
         <v>1</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="81">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="81" t="s">
         <v>269</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -3892,7 +3892,7 @@
       <c r="H4" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="45" t="s">
@@ -3907,13 +3907,13 @@
       <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="81" t="s">
         <v>271</v>
       </c>
       <c r="F5" s="49"/>
@@ -3923,7 +3923,7 @@
       <c r="H5" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="45" t="s">
         <v>43</v>
       </c>
@@ -3936,11 +3936,11 @@
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="49" t="s">
         <v>272</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="H6" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="45" t="s">
         <v>43</v>
       </c>
@@ -3963,11 +3963,11 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="49" t="s">
         <v>241</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="H7" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="81"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="45" t="s">
         <v>43</v>
       </c>
@@ -3990,19 +3990,19 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="78">
+      <c r="A8" s="81">
         <v>2</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="82">
         <v>2.1</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="85" t="s">
         <v>279</v>
       </c>
       <c r="F8" s="70" t="s">
@@ -4014,7 +4014,7 @@
       <c r="H8" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="82" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="54" t="s">
@@ -4029,11 +4029,11 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="83"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="49" t="s">
         <v>243</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="H9" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="54" t="s">
         <v>63</v>
       </c>
@@ -4056,11 +4056,11 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="49" t="s">
         <v>244</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="H10" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="80"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="54" t="s">
         <v>63</v>
       </c>
@@ -4083,11 +4083,11 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="83"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="49" t="s">
         <v>245</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="H11" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="54" t="s">
         <v>63</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="B12" s="65"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="87" t="s">
         <v>280</v>
       </c>
       <c r="F12" s="49" t="s">
@@ -4145,7 +4145,7 @@
       <c r="B13" s="65"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="85"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="49"/>
       <c r="G13" s="28"/>
       <c r="H13" s="14"/>
@@ -4162,7 +4162,7 @@
       <c r="B14" s="65"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="85"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="49"/>
       <c r="G14" s="28"/>
       <c r="H14" s="14"/>
@@ -4179,7 +4179,7 @@
       <c r="B15" s="65"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="85"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="49"/>
       <c r="G15" s="28"/>
       <c r="H15" s="14"/>
@@ -4222,11 +4222,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="I4:I7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="I8:I11"/>
@@ -4234,6 +4229,11 @@
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="I4:I7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="D5:D7"/>
@@ -4360,10 +4360,10 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4394,23 +4394,23 @@
       <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4458,22 +4458,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="77">
+      <c r="A4" s="80">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="81">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="82" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="49" t="s">
@@ -4485,14 +4485,14 @@
       <c r="I4" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="45" t="s">
         <v>55</v>
@@ -4500,12 +4500,12 @@
       <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="49" t="s">
         <v>111</v>
       </c>
@@ -4515,12 +4515,12 @@
       <c r="I5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>30</v>
@@ -4528,12 +4528,12 @@
       <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="49" t="s">
         <v>112</v>
       </c>
@@ -4543,12 +4543,12 @@
       <c r="I6" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="84"/>
       <c r="K6" s="45" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" s="45" t="s">
         <v>30</v>
@@ -4556,18 +4556,18 @@
       <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81">
         <v>1.2</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="82" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="49" t="s">
@@ -4579,7 +4579,7 @@
       <c r="I7" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="82" t="s">
         <v>168</v>
       </c>
       <c r="K7" s="45" t="s">
@@ -4594,12 +4594,12 @@
       <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="80"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="49" t="s">
         <v>114</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="I8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="80"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="45" t="s">
         <v>45</v>
       </c>
@@ -4622,12 +4622,12 @@
       <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="80"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="49" t="s">
         <v>115</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="I9" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="45" t="s">
         <v>45</v>
       </c>
@@ -4650,12 +4650,12 @@
       <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="80"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="49" t="s">
         <v>116</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="I10" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="45" t="s">
         <v>63</v>
       </c>
@@ -4678,12 +4678,12 @@
       <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="81"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="49" t="s">
         <v>117</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="I11" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="45" t="s">
         <v>45</v>
       </c>
@@ -4706,16 +4706,16 @@
       <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78">
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81">
         <v>1.3</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="78" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="81" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="49" t="s">
@@ -4727,7 +4727,7 @@
       <c r="I12" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="45" t="s">
@@ -4742,12 +4742,12 @@
       <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="49" t="s">
         <v>119</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="I13" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="80"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="45" t="s">
         <v>45</v>
       </c>
@@ -4770,12 +4770,12 @@
       <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="49" t="s">
         <v>120</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="I14" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="80"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="45" t="s">
         <v>45</v>
       </c>
@@ -4799,19 +4799,19 @@
     </row>
     <row r="15" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="60"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="81">
         <v>2.1</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="81" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="49" t="s">
@@ -4823,7 +4823,7 @@
       <c r="I15" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="82" t="s">
         <v>168</v>
       </c>
       <c r="K15" s="45" t="s">
@@ -4835,19 +4835,19 @@
       <c r="M15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="99" t="s">
+      <c r="N15" s="102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="101">
+      <c r="A16" s="100">
         <v>2</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="49" t="s">
         <v>122</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="I16" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="81"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="45" t="s">
         <v>45</v>
       </c>
@@ -4867,21 +4867,21 @@
       <c r="M16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="100"/>
+      <c r="N16" s="103"/>
     </row>
     <row r="17" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78">
+      <c r="A17" s="100"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="81" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="49" t="s">
@@ -4893,7 +4893,7 @@
       <c r="I17" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="82" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="45" t="s">
@@ -4908,12 +4908,12 @@
       <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="101"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="49" t="s">
         <v>124</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="I18" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="80"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="45" t="s">
         <v>45</v>
       </c>
@@ -4936,12 +4936,12 @@
       <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="101"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="49" t="s">
         <v>125</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="I19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="45" t="s">
         <v>45</v>
       </c>
@@ -4964,12 +4964,12 @@
       <c r="N19" s="59"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="49" t="s">
         <v>126</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="I20" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="81"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="52" t="s">
         <v>45</v>
       </c>
@@ -4992,12 +4992,12 @@
       <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78">
+      <c r="A21" s="100"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="81" t="s">
         <v>152</v>
       </c>
       <c r="E21" s="45" t="s">
@@ -5015,7 +5015,7 @@
       <c r="I21" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="82" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="52" t="s">
@@ -5030,10 +5030,10 @@
       <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="101"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="45" t="s">
         <v>150</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="I22" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="81"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="52" t="s">
         <v>45</v>
       </c>
@@ -5062,18 +5062,18 @@
       <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="101"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78">
+      <c r="A23" s="100"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81">
         <v>2.4</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="81" t="s">
         <v>103</v>
       </c>
       <c r="G23" s="49" t="s">
@@ -5085,7 +5085,7 @@
       <c r="I23" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="45" t="s">
@@ -5100,12 +5100,12 @@
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="102"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="49" t="s">
         <v>130</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="I24" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="81"/>
+      <c r="J24" s="84"/>
       <c r="K24" s="45" t="s">
         <v>45</v>
       </c>
@@ -5128,10 +5128,10 @@
       <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="89">
+      <c r="A25" s="104">
         <v>3</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="81" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="45">
@@ -5170,18 +5170,18 @@
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="90"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78">
+      <c r="A26" s="105"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81">
         <v>3.2</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="81" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="49" t="s">
@@ -5193,7 +5193,7 @@
       <c r="I26" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="54" t="s">
@@ -5205,17 +5205,17 @@
       <c r="M26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="95" t="s">
+      <c r="N26" s="99" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="90"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="49" t="s">
         <v>133</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="I27" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="81"/>
+      <c r="J27" s="84"/>
       <c r="K27" s="54" t="s">
         <v>45</v>
       </c>
@@ -5235,15 +5235,15 @@
       <c r="M27" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="96"/>
+      <c r="N27" s="92"/>
     </row>
     <row r="28" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="90"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="49" t="s">
         <v>134</v>
       </c>
@@ -5263,15 +5263,15 @@
       <c r="M28" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="N28" s="96"/>
+      <c r="N28" s="92"/>
     </row>
     <row r="29" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="49" t="s">
         <v>135</v>
       </c>
@@ -5293,25 +5293,25 @@
       <c r="M29" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="97"/>
+      <c r="N29" s="93"/>
     </row>
     <row r="30" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="78">
+      <c r="A30" s="81">
         <v>4</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="91">
+      <c r="C30" s="90">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="81" t="s">
         <v>144</v>
       </c>
       <c r="G30" s="49" t="s">
@@ -5323,7 +5323,7 @@
       <c r="I30" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="82" t="s">
         <v>168</v>
       </c>
       <c r="K30" s="29" t="s">
@@ -5335,17 +5335,17 @@
       <c r="M30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="92" t="s">
+      <c r="N30" s="98" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="49" t="s">
         <v>137</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="I31" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="80"/>
+      <c r="J31" s="83"/>
       <c r="K31" s="29" t="s">
         <v>45</v>
       </c>
@@ -5365,15 +5365,15 @@
       <c r="M31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="93"/>
+      <c r="N31" s="96"/>
     </row>
     <row r="32" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="49" t="s">
         <v>138</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="I32" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="J32" s="81"/>
+      <c r="J32" s="84"/>
       <c r="K32" s="29" t="s">
         <v>45</v>
       </c>
@@ -5393,17 +5393,17 @@
       <c r="M32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N32" s="94"/>
+      <c r="N32" s="97"/>
     </row>
     <row r="33" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="82" t="s">
         <v>147</v>
       </c>
       <c r="G33" s="49" t="s">
@@ -5415,7 +5415,7 @@
       <c r="I33" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="J33" s="79" t="s">
+      <c r="J33" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="29" t="s">
@@ -5430,12 +5430,12 @@
       <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="49" t="s">
         <v>140</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="I34" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="J34" s="80"/>
+      <c r="J34" s="83"/>
       <c r="K34" s="29" t="s">
         <v>45</v>
       </c>
@@ -5460,12 +5460,12 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="49" t="s">
         <v>141</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="I35" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="80"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="29" t="s">
         <v>45</v>
       </c>
@@ -5490,12 +5490,12 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="49" t="s">
         <v>169</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="I36" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="81"/>
+      <c r="J36" s="84"/>
       <c r="K36" s="29" t="s">
         <v>45</v>
       </c>
@@ -5518,14 +5518,14 @@
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="81" t="s">
         <v>148</v>
       </c>
       <c r="G37" s="49" t="s">
@@ -5537,7 +5537,7 @@
       <c r="I37" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="79" t="s">
+      <c r="J37" s="82" t="s">
         <v>168</v>
       </c>
       <c r="K37" s="29" t="s">
@@ -5552,12 +5552,12 @@
       <c r="N37" s="27"/>
     </row>
     <row r="38" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="49" t="s">
         <v>176</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="I38" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="80"/>
+      <c r="J38" s="83"/>
       <c r="K38" s="29" t="s">
         <v>45</v>
       </c>
@@ -5580,12 +5580,12 @@
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
       <c r="G39" s="49" t="s">
         <v>177</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="I39" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="J39" s="80"/>
+      <c r="J39" s="83"/>
       <c r="K39" s="29" t="s">
         <v>45</v>
       </c>
@@ -5608,12 +5608,12 @@
       <c r="N39" s="27"/>
     </row>
     <row r="40" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
       <c r="G40" s="49" t="s">
         <v>178</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="I40" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="J40" s="80"/>
+      <c r="J40" s="83"/>
       <c r="K40" s="29" t="s">
         <v>45</v>
       </c>
@@ -5636,12 +5636,12 @@
       <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
       <c r="G41" s="49" t="s">
         <v>196</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="I41" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="J41" s="81"/>
+      <c r="J41" s="84"/>
       <c r="K41" s="29" t="s">
         <v>45</v>
       </c>
@@ -5664,18 +5664,18 @@
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="82">
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="85">
         <v>4.2</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="81" t="s">
         <v>162</v>
       </c>
       <c r="G42" s="49" t="s">
@@ -5687,7 +5687,7 @@
       <c r="I42" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J42" s="79" t="s">
+      <c r="J42" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K42" s="29" t="s">
@@ -5702,12 +5702,12 @@
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
       <c r="G43" s="49" t="s">
         <v>198</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="I43" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="J43" s="80"/>
+      <c r="J43" s="83"/>
       <c r="K43" s="29" t="s">
         <v>45</v>
       </c>
@@ -5730,12 +5730,12 @@
       <c r="N43" s="27"/>
     </row>
     <row r="44" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
       <c r="G44" s="49" t="s">
         <v>203</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="I44" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="81"/>
+      <c r="J44" s="84"/>
       <c r="K44" s="54" t="s">
         <v>106</v>
       </c>
@@ -5758,14 +5758,14 @@
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="81" t="s">
         <v>163</v>
       </c>
       <c r="G45" s="49" t="s">
@@ -5777,7 +5777,7 @@
       <c r="I45" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J45" s="79" t="s">
+      <c r="J45" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K45" s="29" t="s">
@@ -5792,12 +5792,12 @@
       <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
       <c r="G46" s="49" t="s">
         <v>218</v>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="I46" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="J46" s="80"/>
+      <c r="J46" s="83"/>
       <c r="K46" s="29" t="s">
         <v>45</v>
       </c>
@@ -5820,12 +5820,12 @@
       <c r="N46" s="27"/>
     </row>
     <row r="47" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
       <c r="G47" s="49" t="s">
         <v>219</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="I47" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J47" s="81"/>
+      <c r="J47" s="84"/>
       <c r="K47" s="54" t="s">
         <v>106</v>
       </c>
@@ -5848,18 +5848,18 @@
       <c r="N47" s="27"/>
     </row>
     <row r="48" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="91">
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="90">
         <v>4.3</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="81" t="s">
         <v>164</v>
       </c>
       <c r="G48" s="49" t="s">
@@ -5871,7 +5871,7 @@
       <c r="I48" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J48" s="79" t="s">
+      <c r="J48" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K48" s="29" t="s">
@@ -5886,12 +5886,12 @@
       <c r="N48" s="27"/>
     </row>
     <row r="49" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
       <c r="G49" s="49" t="s">
         <v>221</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="I49" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="J49" s="80"/>
+      <c r="J49" s="83"/>
       <c r="K49" s="29" t="s">
         <v>45</v>
       </c>
@@ -5914,12 +5914,12 @@
       <c r="N49" s="27"/>
     </row>
     <row r="50" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
       <c r="G50" s="49" t="s">
         <v>222</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="I50" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J50" s="81"/>
+      <c r="J50" s="84"/>
       <c r="K50" s="54" t="s">
         <v>106</v>
       </c>
@@ -5942,14 +5942,14 @@
       <c r="N50" s="27"/>
     </row>
     <row r="51" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78" t="s">
+      <c r="A51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="81" t="s">
         <v>165</v>
       </c>
       <c r="G51" s="49" t="s">
@@ -5961,7 +5961,7 @@
       <c r="I51" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J51" s="79" t="s">
+      <c r="J51" s="82" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="29" t="s">
@@ -5976,12 +5976,12 @@
       <c r="N51" s="27"/>
     </row>
     <row r="52" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
       <c r="G52" s="49" t="s">
         <v>224</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="I52" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="J52" s="80"/>
+      <c r="J52" s="83"/>
       <c r="K52" s="29" t="s">
         <v>45</v>
       </c>
@@ -6004,12 +6004,12 @@
       <c r="N52" s="27"/>
     </row>
     <row r="53" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="49" t="s">
         <v>234</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="I53" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J53" s="81"/>
+      <c r="J53" s="84"/>
       <c r="K53" s="54" t="s">
         <v>106</v>
       </c>
@@ -6032,12 +6032,12 @@
       <c r="N53" s="27"/>
     </row>
     <row r="54" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="104">
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="91">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="85" t="s">
         <v>232</v>
       </c>
       <c r="E54" s="45" t="s">
@@ -6070,14 +6070,14 @@
       <c r="N54" s="27"/>
     </row>
     <row r="55" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="78" t="s">
+      <c r="A55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="78" t="s">
+      <c r="F55" s="81" t="s">
         <v>233</v>
       </c>
       <c r="G55" s="49" t="s">
@@ -6089,7 +6089,7 @@
       <c r="I55" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J55" s="79" t="s">
+      <c r="J55" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K55" s="29" t="s">
@@ -6104,12 +6104,12 @@
       <c r="N55" s="27"/>
     </row>
     <row r="56" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
       <c r="G56" s="49" t="s">
         <v>237</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="I56" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="J56" s="80"/>
+      <c r="J56" s="83"/>
       <c r="K56" s="29" t="s">
         <v>45</v>
       </c>
@@ -6132,12 +6132,12 @@
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
       <c r="G57" s="49" t="s">
         <v>238</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="I57" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J57" s="81"/>
+      <c r="J57" s="84"/>
       <c r="K57" s="54" t="s">
         <v>106</v>
       </c>
@@ -6160,14 +6160,14 @@
       <c r="N57" s="27"/>
     </row>
     <row r="58" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="79" t="s">
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="82" t="s">
         <v>231</v>
       </c>
       <c r="G58" s="49" t="s">
@@ -6179,7 +6179,7 @@
       <c r="I58" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J58" s="79" t="s">
+      <c r="J58" s="82" t="s">
         <v>18</v>
       </c>
       <c r="K58" s="29" t="s">
@@ -6194,12 +6194,12 @@
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
       <c r="G59" s="49" t="s">
         <v>240</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="I59" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="J59" s="80"/>
+      <c r="J59" s="83"/>
       <c r="K59" s="29" t="s">
         <v>45</v>
       </c>
@@ -6222,12 +6222,12 @@
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
       <c r="G60" s="49" t="s">
         <v>241</v>
       </c>
@@ -6237,7 +6237,7 @@
       <c r="I60" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J60" s="81"/>
+      <c r="J60" s="84"/>
       <c r="K60" s="54" t="s">
         <v>106</v>
       </c>
@@ -6250,18 +6250,18 @@
       <c r="N60" s="27"/>
     </row>
     <row r="61" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="95">
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="99">
         <v>4.5</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="E61" s="106" t="s">
+      <c r="E61" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="87" t="s">
         <v>225</v>
       </c>
       <c r="G61" s="49" t="s">
@@ -6273,7 +6273,7 @@
       <c r="I61" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J61" s="79" t="s">
+      <c r="J61" s="82" t="s">
         <v>168</v>
       </c>
       <c r="K61" s="54" t="s">
@@ -6288,12 +6288,12 @@
       <c r="N61" s="27"/>
     </row>
     <row r="62" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="85"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="88"/>
       <c r="G62" s="49" t="s">
         <v>243</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="I62" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="J62" s="80"/>
+      <c r="J62" s="83"/>
       <c r="K62" s="54" t="s">
         <v>45</v>
       </c>
@@ -6316,12 +6316,12 @@
       <c r="N62" s="27"/>
     </row>
     <row r="63" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="85"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="88"/>
       <c r="G63" s="49" t="s">
         <v>244</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="I63" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="J63" s="80"/>
+      <c r="J63" s="83"/>
       <c r="K63" s="54" t="s">
         <v>45</v>
       </c>
@@ -6344,12 +6344,12 @@
       <c r="N63" s="27"/>
     </row>
     <row r="64" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="85"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="49" t="s">
         <v>245</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="I64" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="J64" s="80"/>
+      <c r="J64" s="83"/>
       <c r="K64" s="54" t="s">
         <v>45</v>
       </c>
@@ -6372,12 +6372,12 @@
       <c r="N64" s="27"/>
     </row>
     <row r="65" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="85"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="88"/>
       <c r="G65" s="49" t="s">
         <v>255</v>
       </c>
@@ -6387,7 +6387,7 @@
       <c r="I65" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="J65" s="80"/>
+      <c r="J65" s="83"/>
       <c r="K65" s="54" t="s">
         <v>63</v>
       </c>
@@ -6400,12 +6400,12 @@
       <c r="N65" s="27"/>
     </row>
     <row r="66" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="105"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="94"/>
       <c r="G66" s="49" t="s">
         <v>256</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="I66" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J66" s="81"/>
+      <c r="J66" s="84"/>
       <c r="K66" s="54" t="s">
         <v>39</v>
       </c>
@@ -6429,6 +6429,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A30:A66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
     <mergeCell ref="E58:E60"/>
     <mergeCell ref="F58:F60"/>
     <mergeCell ref="J58:J60"/>
@@ -6445,80 +6519,6 @@
     <mergeCell ref="F61:F66"/>
     <mergeCell ref="E61:E66"/>
     <mergeCell ref="J61:J66"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D30:D41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A30:A66"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D54:D60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -6683,23 +6683,23 @@
       <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
